--- a/data/pca/factorExposure/factorExposure_2014-11-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-11-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,18 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +729,54 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.004109762166779649</v>
+        <v>0.008169400451631458</v>
       </c>
       <c r="C2">
-        <v>0.07947430037934054</v>
+        <v>-0.07339920593725828</v>
       </c>
       <c r="D2">
-        <v>0.1376057289242957</v>
+        <v>0.003990061635785527</v>
       </c>
       <c r="E2">
-        <v>0.16066642386567</v>
+        <v>-0.1746839032527185</v>
       </c>
       <c r="F2">
-        <v>0.1669788193777143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.04320543012674347</v>
+      </c>
+      <c r="G2">
+        <v>-0.05933720848888537</v>
+      </c>
+      <c r="H2">
+        <v>-0.06875341759624741</v>
+      </c>
+      <c r="I2">
+        <v>-0.1030223341993371</v>
+      </c>
+      <c r="J2">
+        <v>-0.226657155203215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +793,54 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.01843654421854089</v>
+        <v>0.0135203368629388</v>
       </c>
       <c r="C4">
-        <v>0.1528558869494486</v>
+        <v>-0.1524494055788128</v>
       </c>
       <c r="D4">
-        <v>0.06279245351441724</v>
+        <v>-0.02918693062845663</v>
       </c>
       <c r="E4">
-        <v>0.07972226890922858</v>
+        <v>-0.09872539151215205</v>
       </c>
       <c r="F4">
-        <v>-0.04995974742576209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06388627559800103</v>
+      </c>
+      <c r="G4">
+        <v>-0.001979212423891478</v>
+      </c>
+      <c r="H4">
+        <v>-0.1087618277963915</v>
+      </c>
+      <c r="I4">
+        <v>0.02753748542311216</v>
+      </c>
+      <c r="J4">
+        <v>-0.1348972484247935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +857,374 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.01604902810785049</v>
+        <v>0.03196011837348205</v>
       </c>
       <c r="C6">
-        <v>0.07068804984364482</v>
+        <v>-0.07304213283259207</v>
       </c>
       <c r="D6">
-        <v>0.05621836018620972</v>
+        <v>-0.008880080380978485</v>
       </c>
       <c r="E6">
-        <v>0.09837220968709195</v>
+        <v>-0.1101238647196184</v>
       </c>
       <c r="F6">
-        <v>-0.02022850388719209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.0291135770258629</v>
+      </c>
+      <c r="G6">
+        <v>0.04720211283754881</v>
+      </c>
+      <c r="H6">
+        <v>-0.03129378315758909</v>
+      </c>
+      <c r="I6">
+        <v>-0.05153445655732291</v>
+      </c>
+      <c r="J6">
+        <v>-0.0232170411813748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.01722286991491526</v>
+        <v>0.006835041265325263</v>
       </c>
       <c r="C7">
-        <v>0.05234136397140006</v>
+        <v>-0.06728741860417407</v>
       </c>
       <c r="D7">
-        <v>0.0262445767478379</v>
+        <v>-0.005585086851879695</v>
       </c>
       <c r="E7">
-        <v>0.06086959612304468</v>
+        <v>-0.04796753593315282</v>
       </c>
       <c r="F7">
-        <v>-0.01468055417933163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02023690664533519</v>
+      </c>
+      <c r="G7">
+        <v>0.06675802582220432</v>
+      </c>
+      <c r="H7">
+        <v>-0.08256106559483271</v>
+      </c>
+      <c r="I7">
+        <v>0.0008638682952822459</v>
+      </c>
+      <c r="J7">
+        <v>-0.03487266573522574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.0154955613973285</v>
+        <v>-0.009532042208501287</v>
       </c>
       <c r="C8">
-        <v>0.07926038707092964</v>
+        <v>-0.07375545117882441</v>
       </c>
       <c r="D8">
-        <v>0.04622067794515117</v>
+        <v>-0.03114555628586233</v>
       </c>
       <c r="E8">
-        <v>0.1287780643395976</v>
+        <v>-0.08942299520286746</v>
       </c>
       <c r="F8">
-        <v>0.06379787105845355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02513225818149512</v>
+      </c>
+      <c r="G8">
+        <v>-0.05440673831444205</v>
+      </c>
+      <c r="H8">
+        <v>-0.03154012002242019</v>
+      </c>
+      <c r="I8">
+        <v>-0.002712421074226222</v>
+      </c>
+      <c r="J8">
+        <v>-0.001500778382101598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.00916135555990891</v>
+        <v>0.007917949383397585</v>
       </c>
       <c r="C9">
-        <v>0.1291360988661735</v>
+        <v>-0.1177000297290662</v>
       </c>
       <c r="D9">
-        <v>0.03826616308916016</v>
+        <v>-0.02276761893225124</v>
       </c>
       <c r="E9">
-        <v>0.06538726497007084</v>
+        <v>-0.05940350928239834</v>
       </c>
       <c r="F9">
-        <v>-0.03674820830541505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01096230849783244</v>
+      </c>
+      <c r="G9">
+        <v>0.006605218460869893</v>
+      </c>
+      <c r="H9">
+        <v>-0.1006639222608275</v>
+      </c>
+      <c r="I9">
+        <v>-0.001952149812369135</v>
+      </c>
+      <c r="J9">
+        <v>-0.05754524258065322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.2582884467218463</v>
+        <v>0.2504158461005399</v>
       </c>
       <c r="C10">
-        <v>-0.08826898117432022</v>
+        <v>0.08263850769528169</v>
       </c>
       <c r="D10">
-        <v>0.04137930248237129</v>
+        <v>0.00366889568137589</v>
       </c>
       <c r="E10">
-        <v>-0.04016536007323702</v>
+        <v>-0.01571935735514679</v>
       </c>
       <c r="F10">
-        <v>-0.00359742092588164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01414669678871912</v>
+      </c>
+      <c r="G10">
+        <v>0.01262561262367362</v>
+      </c>
+      <c r="H10">
+        <v>-0.02825422632841979</v>
+      </c>
+      <c r="I10">
+        <v>0.1696575326064393</v>
+      </c>
+      <c r="J10">
+        <v>0.09385729365959113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.005025084180778766</v>
+        <v>0.01111326858227475</v>
       </c>
       <c r="C11">
-        <v>0.06387774305500867</v>
+        <v>-0.08033216139226892</v>
       </c>
       <c r="D11">
-        <v>0.01496378095752188</v>
+        <v>-0.021135189071967</v>
       </c>
       <c r="E11">
-        <v>0.03477401817864306</v>
+        <v>-0.01881156839228476</v>
       </c>
       <c r="F11">
-        <v>-0.07188220100613811</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.009639962332091068</v>
+      </c>
+      <c r="G11">
+        <v>0.03377657017236644</v>
+      </c>
+      <c r="H11">
+        <v>-0.02740457167328707</v>
+      </c>
+      <c r="I11">
+        <v>0.007442667478082528</v>
+      </c>
+      <c r="J11">
+        <v>0.03556243501594415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.004382314624470152</v>
+        <v>0.01186303190980116</v>
       </c>
       <c r="C12">
-        <v>0.06031321306837794</v>
+        <v>-0.06307791834747525</v>
       </c>
       <c r="D12">
-        <v>0.01104340437182069</v>
+        <v>-0.009446258691551293</v>
       </c>
       <c r="E12">
-        <v>0.02545470940654301</v>
+        <v>-0.01741335571218556</v>
       </c>
       <c r="F12">
-        <v>-0.05684103665923546</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.02000958263296009</v>
+      </c>
+      <c r="G12">
+        <v>0.037772275611668</v>
+      </c>
+      <c r="H12">
+        <v>-0.02922248577579815</v>
+      </c>
+      <c r="I12">
+        <v>0.01338915362109371</v>
+      </c>
+      <c r="J12">
+        <v>0.01072934294986583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.006794546856459732</v>
+        <v>0.0006817136011193515</v>
       </c>
       <c r="C13">
-        <v>0.09143641165831634</v>
+        <v>-0.1100534918833787</v>
       </c>
       <c r="D13">
-        <v>0.05956283473066841</v>
+        <v>-0.006161793387556809</v>
       </c>
       <c r="E13">
-        <v>0.1320404975467097</v>
+        <v>-0.1534085703370209</v>
       </c>
       <c r="F13">
-        <v>-0.1235866771965504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.1029570177128037</v>
+      </c>
+      <c r="G13">
+        <v>0.0888669963004846</v>
+      </c>
+      <c r="H13">
+        <v>-0.07323310056862745</v>
+      </c>
+      <c r="I13">
+        <v>0.1289361370257435</v>
+      </c>
+      <c r="J13">
+        <v>0.07628454460912479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.002312621291220918</v>
+        <v>0.01179647808853512</v>
       </c>
       <c r="C14">
-        <v>0.05818834507949693</v>
+        <v>-0.07579059788656067</v>
       </c>
       <c r="D14">
-        <v>0.03011275889871583</v>
+        <v>-0.02356544544003857</v>
       </c>
       <c r="E14">
-        <v>0.05540706842581842</v>
+        <v>-0.08232249924814292</v>
       </c>
       <c r="F14">
-        <v>-0.0342793655128492</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03666272408370255</v>
+      </c>
+      <c r="G14">
+        <v>0.1016218824814894</v>
+      </c>
+      <c r="H14">
+        <v>-0.1817261580938643</v>
+      </c>
+      <c r="I14">
+        <v>-0.03022059002789083</v>
+      </c>
+      <c r="J14">
+        <v>0.1493574930918857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.001638556846930149</v>
+        <v>-0.001577021326142362</v>
       </c>
       <c r="C15">
-        <v>0.0738539293629993</v>
+        <v>-0.0721855254036366</v>
       </c>
       <c r="D15">
-        <v>0.04249046370025901</v>
+        <v>-0.01344300190144822</v>
       </c>
       <c r="E15">
-        <v>0.09744315411266716</v>
+        <v>-0.06439840530274094</v>
       </c>
       <c r="F15">
-        <v>-0.02986265594124169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-0.005079346100866203</v>
+      </c>
+      <c r="G15">
+        <v>0.04069447157768823</v>
+      </c>
+      <c r="H15">
+        <v>-0.06132429393475264</v>
+      </c>
+      <c r="I15">
+        <v>-0.009826306672181139</v>
+      </c>
+      <c r="J15">
+        <v>0.05022157260716048</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.008340480947172154</v>
+        <v>0.01134104930025734</v>
       </c>
       <c r="C16">
-        <v>0.05903216272512157</v>
+        <v>-0.06715303779854465</v>
       </c>
       <c r="D16">
-        <v>0.01675574369827299</v>
+        <v>-0.01055123182318414</v>
       </c>
       <c r="E16">
-        <v>0.02266433441927221</v>
+        <v>-0.01196898285669764</v>
       </c>
       <c r="F16">
-        <v>-0.05849524706970099</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.001406078471466694</v>
+      </c>
+      <c r="G16">
+        <v>0.03317119751505514</v>
+      </c>
+      <c r="H16">
+        <v>-0.02626240738845322</v>
+      </c>
+      <c r="I16">
+        <v>0.01051801691116785</v>
+      </c>
+      <c r="J16">
+        <v>0.009678970063363801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1241,22 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1273,22 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1305,246 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.003601474815831539</v>
+        <v>0.006945415577304926</v>
       </c>
       <c r="C20">
-        <v>0.07207869467667948</v>
+        <v>-0.08517012087136967</v>
       </c>
       <c r="D20">
-        <v>0.04387239029305657</v>
+        <v>-0.002163441174225646</v>
       </c>
       <c r="E20">
-        <v>0.05436383701804553</v>
+        <v>-0.03828919284676936</v>
       </c>
       <c r="F20">
-        <v>-0.09578405695795834</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01755561337595359</v>
+      </c>
+      <c r="G20">
+        <v>0.07444165974443562</v>
+      </c>
+      <c r="H20">
+        <v>-0.05846137359414461</v>
+      </c>
+      <c r="I20">
+        <v>-0.003662298216043672</v>
+      </c>
+      <c r="J20">
+        <v>-0.002567425499875209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.001373926183750428</v>
+        <v>0.008731685359393667</v>
       </c>
       <c r="C21">
-        <v>0.09041999986708418</v>
+        <v>-0.08541096919407942</v>
       </c>
       <c r="D21">
-        <v>0.07822570693779744</v>
+        <v>-0.00349197124783568</v>
       </c>
       <c r="E21">
-        <v>0.04229088997395049</v>
+        <v>-0.06759869509893496</v>
       </c>
       <c r="F21">
-        <v>0.01321296714429199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.07499556663870538</v>
+      </c>
+      <c r="G21">
+        <v>0.01417440192741081</v>
+      </c>
+      <c r="H21">
+        <v>-0.1559612184923094</v>
+      </c>
+      <c r="I21">
+        <v>0.0326758989070276</v>
+      </c>
+      <c r="J21">
+        <v>0.03431352054810358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.01279409970710045</v>
+        <v>-0.01576915298054639</v>
       </c>
       <c r="C22">
-        <v>0.1327707510431835</v>
+        <v>-0.1453301993680015</v>
       </c>
       <c r="D22">
-        <v>0.2475459656352448</v>
+        <v>0.02777473731060075</v>
       </c>
       <c r="E22">
-        <v>0.208926551523934</v>
+        <v>-0.3962880237649853</v>
       </c>
       <c r="F22">
-        <v>0.1985245926954181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-0.141227289214781</v>
+      </c>
+      <c r="G22">
+        <v>-0.2776539132626988</v>
+      </c>
+      <c r="H22">
+        <v>0.3567401656722448</v>
+      </c>
+      <c r="I22">
+        <v>0.02362418960329525</v>
+      </c>
+      <c r="J22">
+        <v>0.1938314460836001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.0132931300418407</v>
+        <v>-0.01212284706418613</v>
       </c>
       <c r="C23">
-        <v>0.134377182473728</v>
+        <v>-0.1496993500735309</v>
       </c>
       <c r="D23">
-        <v>0.2460555073763981</v>
+        <v>0.02988255337853888</v>
       </c>
       <c r="E23">
-        <v>0.2070143555737672</v>
+        <v>-0.3867844252536224</v>
       </c>
       <c r="F23">
-        <v>0.1982269627038845</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.1343095986904472</v>
+      </c>
+      <c r="G23">
+        <v>-0.2681879958371871</v>
+      </c>
+      <c r="H23">
+        <v>0.3330545934130152</v>
+      </c>
+      <c r="I23">
+        <v>0.02811239136894962</v>
+      </c>
+      <c r="J23">
+        <v>0.1845191685789402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.001579583941165545</v>
+        <v>0.01156038676645391</v>
       </c>
       <c r="C24">
-        <v>0.07655388668014267</v>
+        <v>-0.07780293012541215</v>
       </c>
       <c r="D24">
-        <v>0.005215176955672051</v>
+        <v>-0.02547610810260823</v>
       </c>
       <c r="E24">
-        <v>0.04246153858667685</v>
+        <v>-0.02163364124987166</v>
       </c>
       <c r="F24">
-        <v>-0.06137931279343647</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.003460688779479419</v>
+      </c>
+      <c r="G24">
+        <v>0.0381758212165288</v>
+      </c>
+      <c r="H24">
+        <v>-0.03957407424214646</v>
+      </c>
+      <c r="I24">
+        <v>0.005601672068473393</v>
+      </c>
+      <c r="J24">
+        <v>0.01624037455737416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.009239910876390502</v>
+        <v>0.01771489464778175</v>
       </c>
       <c r="C25">
-        <v>0.07190946402416779</v>
+        <v>-0.0757623079760031</v>
       </c>
       <c r="D25">
-        <v>0.01203905355577891</v>
+        <v>-0.01557332949176131</v>
       </c>
       <c r="E25">
-        <v>0.01779138688556006</v>
+        <v>-0.01566073623716988</v>
       </c>
       <c r="F25">
-        <v>-0.05881981284824351</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.007231679457166403</v>
+      </c>
+      <c r="G25">
+        <v>0.03154244856494531</v>
+      </c>
+      <c r="H25">
+        <v>-0.0280537858552179</v>
+      </c>
+      <c r="I25">
+        <v>0.01859513519844474</v>
+      </c>
+      <c r="J25">
+        <v>0.03551341170494334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.004210393916088317</v>
+        <v>0.01685927476262353</v>
       </c>
       <c r="C26">
-        <v>0.05353377961838867</v>
+        <v>-0.06384505881725042</v>
       </c>
       <c r="D26">
-        <v>0.01567413952938536</v>
+        <v>-0.0424647928998606</v>
       </c>
       <c r="E26">
-        <v>0.05058751851905476</v>
+        <v>-0.02974872690971313</v>
       </c>
       <c r="F26">
-        <v>-0.03034222388093152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.005458327918833864</v>
+      </c>
+      <c r="G26">
+        <v>0.03358511223473256</v>
+      </c>
+      <c r="H26">
+        <v>-0.117120927334622</v>
+      </c>
+      <c r="I26">
+        <v>0.02365264401177122</v>
+      </c>
+      <c r="J26">
+        <v>-0.07513288173075493</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1561,310 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.33803285359131</v>
+        <v>0.317923821692868</v>
       </c>
       <c r="C28">
-        <v>-0.1016298218250733</v>
+        <v>0.103577173697921</v>
       </c>
       <c r="D28">
-        <v>0.03993336667268851</v>
+        <v>0.02485961828986282</v>
       </c>
       <c r="E28">
-        <v>-0.06742555895876365</v>
+        <v>-0.01680228594441275</v>
       </c>
       <c r="F28">
-        <v>0.01367392454332215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.04715253616818603</v>
+      </c>
+      <c r="G28">
+        <v>-0.07897201633031241</v>
+      </c>
+      <c r="H28">
+        <v>-0.08295399338831357</v>
+      </c>
+      <c r="I28">
+        <v>0.1712468859322785</v>
+      </c>
+      <c r="J28">
+        <v>-0.05783055083976577</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.002363314285028945</v>
+        <v>0.007376670177429749</v>
       </c>
       <c r="C29">
-        <v>0.05901731164693182</v>
+        <v>-0.07986877464297507</v>
       </c>
       <c r="D29">
-        <v>0.04250614283588423</v>
+        <v>-0.02274704539887183</v>
       </c>
       <c r="E29">
-        <v>0.09835193569539175</v>
+        <v>-0.1263262035340036</v>
       </c>
       <c r="F29">
-        <v>-0.07165053953962798</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.04996435524124696</v>
+      </c>
+      <c r="G29">
+        <v>0.1569575581516906</v>
+      </c>
+      <c r="H29">
+        <v>-0.2548868359385451</v>
+      </c>
+      <c r="I29">
+        <v>-0.05319523578173336</v>
+      </c>
+      <c r="J29">
+        <v>0.2252623888773883</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.01562553248028218</v>
+        <v>0.01828485143760625</v>
       </c>
       <c r="C30">
-        <v>0.1757526975468733</v>
+        <v>-0.157648406427655</v>
       </c>
       <c r="D30">
-        <v>0.03720448110991799</v>
+        <v>-0.03477624846612459</v>
       </c>
       <c r="E30">
-        <v>0.08964745416090909</v>
+        <v>-0.07286149023660242</v>
       </c>
       <c r="F30">
-        <v>-0.01028574068142627</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.0223227050145103</v>
+      </c>
+      <c r="G30">
+        <v>-0.01186707894420122</v>
+      </c>
+      <c r="H30">
+        <v>-0.02933890800188127</v>
+      </c>
+      <c r="I30">
+        <v>-0.01444182003744693</v>
+      </c>
+      <c r="J30">
+        <v>-0.08042192749782627</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.008005653624320172</v>
+        <v>0.00592274468996328</v>
       </c>
       <c r="C31">
-        <v>0.09843696043298922</v>
+        <v>-0.09833820179430039</v>
       </c>
       <c r="D31">
-        <v>-0.03429305511833316</v>
+        <v>-0.03008942981133823</v>
       </c>
       <c r="E31">
-        <v>-0.01469085991370864</v>
+        <v>0.01628839332013756</v>
       </c>
       <c r="F31">
-        <v>0.02423145704085753</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.00124357641528987</v>
+      </c>
+      <c r="G31">
+        <v>-0.02935082583860693</v>
+      </c>
+      <c r="H31">
+        <v>-0.04983182109076133</v>
+      </c>
+      <c r="I31">
+        <v>0.03815116479765888</v>
+      </c>
+      <c r="J31">
+        <v>0.04535583230212313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.02432716451772855</v>
+        <v>0.02186906946486244</v>
       </c>
       <c r="C32">
-        <v>0.07770265969316707</v>
+        <v>-0.0688164268625918</v>
       </c>
       <c r="D32">
-        <v>0.1095104094679585</v>
+        <v>0.0100373594392828</v>
       </c>
       <c r="E32">
-        <v>0.08905873307650022</v>
+        <v>-0.1292362582287995</v>
       </c>
       <c r="F32">
-        <v>-0.01946972331998652</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.03227848066801953</v>
+      </c>
+      <c r="G32">
+        <v>0.02216217122699559</v>
+      </c>
+      <c r="H32">
+        <v>-0.1095683646156689</v>
+      </c>
+      <c r="I32">
+        <v>0.2386827183382751</v>
+      </c>
+      <c r="J32">
+        <v>-0.04493628268446149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.001193584167170656</v>
+        <v>0.009657044162652792</v>
       </c>
       <c r="C33">
-        <v>0.09341545830159585</v>
+        <v>-0.1112060912623348</v>
       </c>
       <c r="D33">
-        <v>0.01509299564167559</v>
+        <v>-0.0172177515226064</v>
       </c>
       <c r="E33">
-        <v>0.05672364648796614</v>
+        <v>-0.04848971056956337</v>
       </c>
       <c r="F33">
-        <v>-0.03803056951623904</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.004369354406934436</v>
+      </c>
+      <c r="G33">
+        <v>0.03821612350647881</v>
+      </c>
+      <c r="H33">
+        <v>-0.05215195952880654</v>
+      </c>
+      <c r="I33">
+        <v>0.02862197773583441</v>
+      </c>
+      <c r="J33">
+        <v>0.01444220282083894</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.001781932897116834</v>
+        <v>0.01279916278061419</v>
       </c>
       <c r="C34">
-        <v>0.05765780854862861</v>
+        <v>-0.05614091296960685</v>
       </c>
       <c r="D34">
-        <v>0.002405039836178607</v>
+        <v>-0.01439308349988227</v>
       </c>
       <c r="E34">
-        <v>0.01990568755072673</v>
+        <v>-0.007626545811837667</v>
       </c>
       <c r="F34">
-        <v>-0.04421491154839546</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.008162738114097194</v>
+      </c>
+      <c r="G34">
+        <v>0.02797215790262058</v>
+      </c>
+      <c r="H34">
+        <v>-0.001928828693477851</v>
+      </c>
+      <c r="I34">
+        <v>0.02402147908172001</v>
+      </c>
+      <c r="J34">
+        <v>0.01722351366366127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.001974140741389512</v>
+        <v>0.006549211700103198</v>
       </c>
       <c r="C35">
-        <v>0.01000450645125022</v>
+        <v>-0.03654444788334341</v>
       </c>
       <c r="D35">
-        <v>0.008266554530914075</v>
+        <v>-0.005544460698432795</v>
       </c>
       <c r="E35">
-        <v>0.0119358185896481</v>
+        <v>-0.04107368597077644</v>
       </c>
       <c r="F35">
-        <v>-0.01672222332735058</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.01008115814914729</v>
+      </c>
+      <c r="G35">
+        <v>0.06583644099311742</v>
+      </c>
+      <c r="H35">
+        <v>-0.1236399212645209</v>
+      </c>
+      <c r="I35">
+        <v>0.003565952435887492</v>
+      </c>
+      <c r="J35">
+        <v>0.16517830900124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.00200641396018565</v>
+        <v>0.008814318097192311</v>
       </c>
       <c r="C36">
-        <v>0.04487259404936606</v>
+        <v>-0.04988391422811324</v>
       </c>
       <c r="D36">
-        <v>0.01068871284880894</v>
+        <v>-0.03130568159469116</v>
       </c>
       <c r="E36">
-        <v>0.06458905530399632</v>
+        <v>-0.04172418534065288</v>
       </c>
       <c r="F36">
-        <v>-0.02567546188934055</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.001396008819780652</v>
+      </c>
+      <c r="G36">
+        <v>0.0271078091231286</v>
+      </c>
+      <c r="H36">
+        <v>-0.06611592259458569</v>
+      </c>
+      <c r="I36">
+        <v>0.01233060609492548</v>
+      </c>
+      <c r="J36">
+        <v>-0.02187588172978733</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1881,150 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.01220533565867252</v>
+        <v>0.008511037126560886</v>
       </c>
       <c r="C38">
-        <v>0.04918918850057484</v>
+        <v>-0.06492031212446871</v>
       </c>
       <c r="D38">
-        <v>0.02070895362576493</v>
+        <v>-0.01899718089719023</v>
       </c>
       <c r="E38">
-        <v>0.05335590229788663</v>
+        <v>-0.04585368873762817</v>
       </c>
       <c r="F38">
-        <v>-0.007473830968739856</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04578983758247365</v>
+      </c>
+      <c r="G38">
+        <v>0.01901456849393979</v>
+      </c>
+      <c r="H38">
+        <v>-0.05335710539844274</v>
+      </c>
+      <c r="I38">
+        <v>0.03055335969600829</v>
+      </c>
+      <c r="J38">
+        <v>0.04360172440162094</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.001893667971516175</v>
+        <v>0.008200570714655169</v>
       </c>
       <c r="C39">
-        <v>0.1350468878865685</v>
+        <v>-0.132072014057877</v>
       </c>
       <c r="D39">
-        <v>0.02741662418172386</v>
+        <v>-0.0365077302081296</v>
       </c>
       <c r="E39">
-        <v>0.06229727239902071</v>
+        <v>-0.03163003495821753</v>
       </c>
       <c r="F39">
-        <v>-0.07601846966401472</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01676965248296939</v>
+      </c>
+      <c r="G39">
+        <v>0.05844717481755187</v>
+      </c>
+      <c r="H39">
+        <v>-0.03755780668157292</v>
+      </c>
+      <c r="I39">
+        <v>-0.03004408273900706</v>
+      </c>
+      <c r="J39">
+        <v>-0.00131933659063399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.005363077153659085</v>
+        <v>0.008988680026598675</v>
       </c>
       <c r="C40">
-        <v>0.03001963778632495</v>
+        <v>-0.05994034950418985</v>
       </c>
       <c r="D40">
-        <v>0.03460454592377833</v>
+        <v>-0.01773652953575134</v>
       </c>
       <c r="E40">
-        <v>0.1268594835868866</v>
+        <v>-0.1250363376284991</v>
       </c>
       <c r="F40">
-        <v>-0.02187978636119211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02601772452073595</v>
+      </c>
+      <c r="G40">
+        <v>0.109956132860329</v>
+      </c>
+      <c r="H40">
+        <v>0.0212282323687617</v>
+      </c>
+      <c r="I40">
+        <v>0.0302826332730251</v>
+      </c>
+      <c r="J40">
+        <v>0.2135430970662062</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.005913492524542175</v>
+        <v>0.01802735249170984</v>
       </c>
       <c r="C41">
-        <v>0.02138009959991876</v>
+        <v>-0.0486958741359895</v>
       </c>
       <c r="D41">
-        <v>-0.0004361618384215367</v>
+        <v>-0.007202771648232674</v>
       </c>
       <c r="E41">
-        <v>-0.0142892928704259</v>
+        <v>0.004078906215455745</v>
       </c>
       <c r="F41">
-        <v>0.009416396283588091</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.006755057841415661</v>
+      </c>
+      <c r="G41">
+        <v>0.01389394559617466</v>
+      </c>
+      <c r="H41">
+        <v>-0.03005228502131779</v>
+      </c>
+      <c r="I41">
+        <v>0.045595580373606</v>
+      </c>
+      <c r="J41">
+        <v>0.06050239818433264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2041,86 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.00286542095868332</v>
+        <v>0.01082368384306605</v>
       </c>
       <c r="C43">
-        <v>0.01617354147125978</v>
+        <v>-0.04295180535966373</v>
       </c>
       <c r="D43">
-        <v>0.01342938133488731</v>
+        <v>-0.01570636036621415</v>
       </c>
       <c r="E43">
-        <v>0.02689264898774919</v>
+        <v>-0.02050847054155905</v>
       </c>
       <c r="F43">
-        <v>-0.03074698197690496</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.01415621916517734</v>
+      </c>
+      <c r="G43">
+        <v>0.02981668019286894</v>
+      </c>
+      <c r="H43">
+        <v>-0.04181592800226254</v>
+      </c>
+      <c r="I43">
+        <v>0.01701408471510617</v>
+      </c>
+      <c r="J43">
+        <v>0.04566501300005796</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.0176266280217046</v>
+        <v>0.006495605590430496</v>
       </c>
       <c r="C44">
-        <v>0.07703271965374239</v>
+        <v>-0.08581151119859541</v>
       </c>
       <c r="D44">
-        <v>0.05864174819343523</v>
+        <v>-0.03580117245199702</v>
       </c>
       <c r="E44">
-        <v>0.1046420754837947</v>
+        <v>-0.0989097211733814</v>
       </c>
       <c r="F44">
-        <v>-0.02427277925661407</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.01071125916654051</v>
+      </c>
+      <c r="G44">
+        <v>0.02173914444267964</v>
+      </c>
+      <c r="H44">
+        <v>-0.02880754936772892</v>
+      </c>
+      <c r="I44">
+        <v>-0.04387831329303558</v>
+      </c>
+      <c r="J44">
+        <v>-0.04242262650371647</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2137,214 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.00350757123335102</v>
+        <v>0.0004849853273297533</v>
       </c>
       <c r="C46">
-        <v>0.06155623624447636</v>
+        <v>-0.06571547421481443</v>
       </c>
       <c r="D46">
-        <v>0.02855234236162983</v>
+        <v>-0.01623318200937555</v>
       </c>
       <c r="E46">
-        <v>0.05977636341546427</v>
+        <v>-0.04394131378155346</v>
       </c>
       <c r="F46">
-        <v>-0.04865472524900621</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.004625779351557207</v>
+      </c>
+      <c r="G46">
+        <v>0.06217567034906932</v>
+      </c>
+      <c r="H46">
+        <v>-0.1106761574326428</v>
+      </c>
+      <c r="I46">
+        <v>-0.01740990686849359</v>
+      </c>
+      <c r="J46">
+        <v>0.09367345681476663</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.009858162984131131</v>
+        <v>0.02103225980719152</v>
       </c>
       <c r="C47">
-        <v>0.1110804671550265</v>
+        <v>-0.09805797598678212</v>
       </c>
       <c r="D47">
-        <v>-0.01998366497835991</v>
+        <v>-0.02517496894634285</v>
       </c>
       <c r="E47">
-        <v>-0.0470325334591365</v>
+        <v>0.01722006352455653</v>
       </c>
       <c r="F47">
-        <v>0.02659826929274264</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.002995400781075684</v>
+      </c>
+      <c r="G47">
+        <v>-0.001482320218673483</v>
+      </c>
+      <c r="H47">
+        <v>-0.07861094416463815</v>
+      </c>
+      <c r="I47">
+        <v>0.03597558385459214</v>
+      </c>
+      <c r="J47">
+        <v>0.02091567280507109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01098925181405811</v>
+        <v>0.0157159303945836</v>
       </c>
       <c r="C48">
-        <v>0.05030616979568971</v>
+        <v>-0.05708297329570163</v>
       </c>
       <c r="D48">
-        <v>-0.0104053892302656</v>
+        <v>-0.04221053600557136</v>
       </c>
       <c r="E48">
-        <v>0.0649168079152479</v>
+        <v>-0.03477698052104487</v>
       </c>
       <c r="F48">
-        <v>-0.03668617472961719</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.001139717588128942</v>
+      </c>
+      <c r="G48">
+        <v>0.03216069077924502</v>
+      </c>
+      <c r="H48">
+        <v>-0.1090713049244916</v>
+      </c>
+      <c r="I48">
+        <v>0.01617969908942386</v>
+      </c>
+      <c r="J48">
+        <v>-0.06331322405511446</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.006627003331862117</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.01439156313534834</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.002524429692641928</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.02301176430720189</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.002322941215961481</v>
+      </c>
+      <c r="G49">
+        <v>0.01569322832856672</v>
+      </c>
+      <c r="H49">
+        <v>0.009924135165187333</v>
+      </c>
+      <c r="I49">
+        <v>-0.03113319745097122</v>
+      </c>
+      <c r="J49">
+        <v>-0.01707495364976883</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.005719570965843934</v>
+        <v>0.01242777316383865</v>
       </c>
       <c r="C50">
-        <v>0.0930442821430313</v>
+        <v>-0.09048669327236633</v>
       </c>
       <c r="D50">
-        <v>-0.01468512514127485</v>
+        <v>-0.01406143392517897</v>
       </c>
       <c r="E50">
-        <v>-0.0132648715905868</v>
+        <v>0.005693229095769303</v>
       </c>
       <c r="F50">
-        <v>0.02815950621148883</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.01309996609640136</v>
+      </c>
+      <c r="G50">
+        <v>-0.02247246839691167</v>
+      </c>
+      <c r="H50">
+        <v>-0.06165070510547814</v>
+      </c>
+      <c r="I50">
+        <v>0.06220289379521402</v>
+      </c>
+      <c r="J50">
+        <v>0.03243979677998827</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.003328375764772199</v>
+        <v>-0.005795946885084963</v>
       </c>
       <c r="C51">
-        <v>0.05637038045101899</v>
+        <v>-0.03930807053026979</v>
       </c>
       <c r="D51">
-        <v>0.06246124015413043</v>
+        <v>-0.01025569344948726</v>
       </c>
       <c r="E51">
-        <v>0.07413889908324929</v>
+        <v>-0.05119664508435698</v>
       </c>
       <c r="F51">
-        <v>-0.02374287593008887</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.00646431475634817</v>
+      </c>
+      <c r="G51">
+        <v>0.02870696788488086</v>
+      </c>
+      <c r="H51">
+        <v>-0.08666469623920392</v>
+      </c>
+      <c r="I51">
+        <v>-0.02320963428524661</v>
+      </c>
+      <c r="J51">
+        <v>-0.1129174117510662</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2361,150 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.0411826230227283</v>
+        <v>0.05092634830187812</v>
       </c>
       <c r="C53">
-        <v>0.1619392684610211</v>
+        <v>-0.1472479476934173</v>
       </c>
       <c r="D53">
-        <v>-0.06837223187897132</v>
+        <v>-0.04814837540575929</v>
       </c>
       <c r="E53">
-        <v>-0.05034657696508024</v>
+        <v>0.08945635958198384</v>
       </c>
       <c r="F53">
-        <v>-0.006052210290108746</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.001998669365107353</v>
+      </c>
+      <c r="G53">
+        <v>-0.04960011895620078</v>
+      </c>
+      <c r="H53">
+        <v>-0.008840857411316589</v>
+      </c>
+      <c r="I53">
+        <v>0.05448244589498136</v>
+      </c>
+      <c r="J53">
+        <v>0.01809030595872135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.004595170557678546</v>
+        <v>0.01236885020545033</v>
       </c>
       <c r="C54">
-        <v>0.05786691170554927</v>
+        <v>-0.07152432088553563</v>
       </c>
       <c r="D54">
-        <v>0.03958693041948091</v>
+        <v>0.005451473718061529</v>
       </c>
       <c r="E54">
-        <v>0.02698036376746559</v>
+        <v>-0.02490814889735346</v>
       </c>
       <c r="F54">
-        <v>-0.02349009893240945</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.002060919409651415</v>
+      </c>
+      <c r="G54">
+        <v>0.03082168760499536</v>
+      </c>
+      <c r="H54">
+        <v>-0.07852688180365436</v>
+      </c>
+      <c r="I54">
+        <v>-0.01504156273005042</v>
+      </c>
+      <c r="J54">
+        <v>0.03886213758294552</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.02510962792040369</v>
+        <v>0.0281879088564735</v>
       </c>
       <c r="C55">
-        <v>0.1245171212551841</v>
+        <v>-0.1069814207183578</v>
       </c>
       <c r="D55">
-        <v>-0.06458000498357731</v>
+        <v>-0.04864431770182593</v>
       </c>
       <c r="E55">
-        <v>-0.01822732601128701</v>
+        <v>0.06850548844762806</v>
       </c>
       <c r="F55">
-        <v>0.007596868769382829</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.0133546778669216</v>
+      </c>
+      <c r="G55">
+        <v>-0.02230476652644087</v>
+      </c>
+      <c r="H55">
+        <v>-0.02034150909527171</v>
+      </c>
+      <c r="I55">
+        <v>0.01076150344560531</v>
+      </c>
+      <c r="J55">
+        <v>0.001834347516766932</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.04524432961378839</v>
+        <v>0.04428366608769536</v>
       </c>
       <c r="C56">
-        <v>0.1950795312818125</v>
+        <v>-0.1773875024868073</v>
       </c>
       <c r="D56">
-        <v>-0.08796143076723542</v>
+        <v>-0.0695933991280598</v>
       </c>
       <c r="E56">
-        <v>-0.08834976842979193</v>
+        <v>0.1287824251585249</v>
       </c>
       <c r="F56">
-        <v>0.04489657941175002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.00603825757157098</v>
+      </c>
+      <c r="G56">
+        <v>-0.1051357144653437</v>
+      </c>
+      <c r="H56">
+        <v>-0.00336623252782836</v>
+      </c>
+      <c r="I56">
+        <v>0.04010875707784387</v>
+      </c>
+      <c r="J56">
+        <v>-0.02684485301233949</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2521,406 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.009116723748258755</v>
+        <v>0.008101553948342376</v>
       </c>
       <c r="C58">
-        <v>0.1852166423606812</v>
+        <v>-0.1705717787682724</v>
       </c>
       <c r="D58">
-        <v>0.2382987618778592</v>
+        <v>0.0187296914515254</v>
       </c>
       <c r="E58">
-        <v>0.1778464152846343</v>
+        <v>-0.2811906990192277</v>
       </c>
       <c r="F58">
-        <v>0.09559351639523507</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.07450023198211243</v>
+      </c>
+      <c r="G58">
+        <v>-0.1791139609059126</v>
+      </c>
+      <c r="H58">
+        <v>-0.0301749934675748</v>
+      </c>
+      <c r="I58">
+        <v>-0.06549909106388939</v>
+      </c>
+      <c r="J58">
+        <v>-0.3640949393117419</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.2608386247713309</v>
+        <v>0.2777799275829484</v>
       </c>
       <c r="C59">
-        <v>-0.01548677477615026</v>
+        <v>0.03345327783977391</v>
       </c>
       <c r="D59">
-        <v>0.07081884497887742</v>
+        <v>0.01136139501620214</v>
       </c>
       <c r="E59">
-        <v>0.007670585110414744</v>
+        <v>-0.05285396584015857</v>
       </c>
       <c r="F59">
-        <v>0.02066476447437691</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01571289118711698</v>
+      </c>
+      <c r="G59">
+        <v>-0.01762784857010584</v>
+      </c>
+      <c r="H59">
+        <v>0.02353106566550894</v>
+      </c>
+      <c r="I59">
+        <v>0.09525026464829935</v>
+      </c>
+      <c r="J59">
+        <v>-0.008430559303480951</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1194739042444291</v>
+        <v>0.1463137313882072</v>
       </c>
       <c r="C60">
-        <v>0.151340658867026</v>
+        <v>-0.1614905505566714</v>
       </c>
       <c r="D60">
-        <v>-0.05360624084570122</v>
+        <v>-0.03832060131449264</v>
       </c>
       <c r="E60">
-        <v>0.007667329790068641</v>
+        <v>0.03649540640886103</v>
       </c>
       <c r="F60">
-        <v>-0.2177960222495069</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.08793913357122278</v>
+      </c>
+      <c r="G60">
+        <v>0.2256546880317601</v>
+      </c>
+      <c r="H60">
+        <v>0.28269240070042</v>
+      </c>
+      <c r="I60">
+        <v>-0.06782221751615773</v>
+      </c>
+      <c r="J60">
+        <v>-0.004984394666338455</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.002956502467147223</v>
+        <v>0.0139562464749672</v>
       </c>
       <c r="C61">
-        <v>0.09641713333273554</v>
+        <v>-0.1068970159874232</v>
       </c>
       <c r="D61">
-        <v>-0.003880392151717795</v>
+        <v>-0.03360729652454711</v>
       </c>
       <c r="E61">
-        <v>0.03194999357923815</v>
+        <v>-0.008413751734006224</v>
       </c>
       <c r="F61">
-        <v>-0.07587725586421712</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.004652502324825471</v>
+      </c>
+      <c r="G61">
+        <v>0.05856932988456112</v>
+      </c>
+      <c r="H61">
+        <v>-0.04161441917698044</v>
+      </c>
+      <c r="I61">
+        <v>-0.002842519330256215</v>
+      </c>
+      <c r="J61">
+        <v>0.0374917506112655</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0007041569567035543</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.005046323140097352</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.003517345831834623</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.01464609804576587</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.0003753254956391546</v>
+      </c>
+      <c r="G62">
+        <v>0.01726189710994539</v>
+      </c>
+      <c r="H62">
+        <v>-0.01346392020474846</v>
+      </c>
+      <c r="I62">
+        <v>-0.005968550383771369</v>
+      </c>
+      <c r="J62">
+        <v>0.007062503807061563</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.005954677436026367</v>
+        <v>0.0167750736740119</v>
       </c>
       <c r="C63">
-        <v>0.06117706890609556</v>
+        <v>-0.07491372490999898</v>
       </c>
       <c r="D63">
-        <v>0.0122836466005256</v>
+        <v>-0.03516904849166776</v>
       </c>
       <c r="E63">
-        <v>0.03322252315725334</v>
+        <v>-0.02595126630068493</v>
       </c>
       <c r="F63">
-        <v>-0.04901302823690016</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.005195354806572673</v>
+      </c>
+      <c r="G63">
+        <v>0.04125180781384551</v>
+      </c>
+      <c r="H63">
+        <v>-0.05918500634733233</v>
+      </c>
+      <c r="I63">
+        <v>0.02430416451898493</v>
+      </c>
+      <c r="J63">
+        <v>0.02353036550629881</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.00589668160767541</v>
+        <v>0.01343205255521593</v>
       </c>
       <c r="C64">
-        <v>0.1269785832732607</v>
+        <v>-0.1047046440209423</v>
       </c>
       <c r="D64">
-        <v>-0.05449558762230001</v>
+        <v>-0.02851458464153014</v>
       </c>
       <c r="E64">
-        <v>0.01024654351189786</v>
+        <v>-0.002131004316029216</v>
       </c>
       <c r="F64">
-        <v>-0.04439876954444765</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.02747278540111283</v>
+      </c>
+      <c r="G64">
+        <v>0.01964480245073772</v>
+      </c>
+      <c r="H64">
+        <v>-0.008894913282690393</v>
+      </c>
+      <c r="I64">
+        <v>0.004079399198374847</v>
+      </c>
+      <c r="J64">
+        <v>0.04660436899247558</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.01212149820793737</v>
+        <v>0.02362248085925645</v>
       </c>
       <c r="C65">
-        <v>0.06872179106150486</v>
+        <v>-0.08809216180349158</v>
       </c>
       <c r="D65">
-        <v>0.04748121481706617</v>
+        <v>0.004179428013501179</v>
       </c>
       <c r="E65">
-        <v>0.06089003849197467</v>
+        <v>-0.0743553408813338</v>
       </c>
       <c r="F65">
-        <v>-0.05792586465599288</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.01155647129008472</v>
+      </c>
+      <c r="G65">
+        <v>0.1033279354526097</v>
+      </c>
+      <c r="H65">
+        <v>0.02661510624598979</v>
+      </c>
+      <c r="I65">
+        <v>-0.0634508846572053</v>
+      </c>
+      <c r="J65">
+        <v>-0.02984228739782871</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.002692765171448783</v>
+        <v>0.006168348853259067</v>
       </c>
       <c r="C66">
-        <v>0.1571087144619921</v>
+        <v>-0.1612294061009102</v>
       </c>
       <c r="D66">
-        <v>0.05821582504103467</v>
+        <v>-0.02075531779109403</v>
       </c>
       <c r="E66">
-        <v>0.08471398057305575</v>
+        <v>-0.05460366240687331</v>
       </c>
       <c r="F66">
-        <v>-0.06218427404299223</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.007975912925056167</v>
+      </c>
+      <c r="G66">
+        <v>0.04047808298206285</v>
+      </c>
+      <c r="H66">
+        <v>-0.03785595351931574</v>
+      </c>
+      <c r="I66">
+        <v>-0.02619995146189435</v>
+      </c>
+      <c r="J66">
+        <v>-0.0008345662933229999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.01994008020494649</v>
+        <v>0.01881307382754443</v>
       </c>
       <c r="C67">
-        <v>0.04420884237244211</v>
+        <v>-0.05906695284960432</v>
       </c>
       <c r="D67">
-        <v>-0.0274479682223681</v>
+        <v>-0.02936820071344367</v>
       </c>
       <c r="E67">
-        <v>0.02504841491740362</v>
+        <v>-0.00769754194751459</v>
       </c>
       <c r="F67">
-        <v>-0.01705609847986202</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03551682027030274</v>
+      </c>
+      <c r="G67">
+        <v>0.04194081285381773</v>
+      </c>
+      <c r="H67">
+        <v>-0.02928476450853827</v>
+      </c>
+      <c r="I67">
+        <v>0.02416653042617525</v>
+      </c>
+      <c r="J67">
+        <v>0.05899001153321431</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.256986743592399</v>
+        <v>0.286412995918402</v>
       </c>
       <c r="C68">
-        <v>-0.03377376405796483</v>
+        <v>0.0398525857743522</v>
       </c>
       <c r="D68">
-        <v>0.05963685530919181</v>
+        <v>0.03383409952979802</v>
       </c>
       <c r="E68">
-        <v>0.0133317742534868</v>
+        <v>-0.06254095546876952</v>
       </c>
       <c r="F68">
-        <v>0.04835494947237538</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01404808329357072</v>
+      </c>
+      <c r="G68">
+        <v>-0.0440969638543191</v>
+      </c>
+      <c r="H68">
+        <v>0.02320068852277933</v>
+      </c>
+      <c r="I68">
+        <v>0.0763276594716822</v>
+      </c>
+      <c r="J68">
+        <v>0.003063451473689245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.01193507808100554</v>
+        <v>0.008420221696624118</v>
       </c>
       <c r="C69">
-        <v>0.1062318697835152</v>
+        <v>-0.07988508690870436</v>
       </c>
       <c r="D69">
-        <v>-0.05192629921123833</v>
+        <v>-0.02436447209737585</v>
       </c>
       <c r="E69">
-        <v>-0.001266679023125174</v>
+        <v>0.01985791379041119</v>
       </c>
       <c r="F69">
-        <v>0.01804264675269703</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.003541826149825377</v>
+      </c>
+      <c r="G69">
+        <v>0.009006017956735276</v>
+      </c>
+      <c r="H69">
+        <v>-0.05571400208816912</v>
+      </c>
+      <c r="I69">
+        <v>0.03595527639466969</v>
+      </c>
+      <c r="J69">
+        <v>0.008171614165054585</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +2937,822 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.2754091905312793</v>
+        <v>0.2758649344468832</v>
       </c>
       <c r="C71">
-        <v>-0.04310828551379444</v>
+        <v>0.06187722672460554</v>
       </c>
       <c r="D71">
-        <v>0.05124488298435371</v>
+        <v>0.02123475650932476</v>
       </c>
       <c r="E71">
-        <v>-0.01329691475298023</v>
+        <v>-0.03993457435945995</v>
       </c>
       <c r="F71">
-        <v>-0.02553038982103647</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.03726547012317184</v>
+      </c>
+      <c r="G71">
+        <v>-0.003887294014486502</v>
+      </c>
+      <c r="H71">
+        <v>-0.05451442751749125</v>
+      </c>
+      <c r="I71">
+        <v>0.1111567814127316</v>
+      </c>
+      <c r="J71">
+        <v>-0.08582591817380587</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.05911765740911912</v>
+        <v>0.05906384500295272</v>
       </c>
       <c r="C72">
-        <v>0.1855253101308277</v>
+        <v>-0.1584850148861619</v>
       </c>
       <c r="D72">
-        <v>-0.0383285060079181</v>
+        <v>-0.02262176175419158</v>
       </c>
       <c r="E72">
-        <v>0.06497286522257982</v>
+        <v>0.02420587481702307</v>
       </c>
       <c r="F72">
-        <v>-0.09069080736845116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.02153984626990731</v>
+      </c>
+      <c r="G72">
+        <v>0.03489170891688677</v>
+      </c>
+      <c r="H72">
+        <v>0.05318945766928943</v>
+      </c>
+      <c r="I72">
+        <v>-0.09587055186841463</v>
+      </c>
+      <c r="J72">
+        <v>0.02424476088282329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.1036613551547561</v>
+        <v>0.1503044046169154</v>
       </c>
       <c r="C73">
-        <v>0.1561671834524095</v>
+        <v>-0.1977955911423595</v>
       </c>
       <c r="D73">
-        <v>-0.09273435790120468</v>
+        <v>-0.05690919265709102</v>
       </c>
       <c r="E73">
-        <v>-0.004779402218676569</v>
+        <v>0.09585403596828643</v>
       </c>
       <c r="F73">
-        <v>-0.317254003007857</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1017381453157603</v>
+      </c>
+      <c r="G73">
+        <v>0.3828274334866938</v>
+      </c>
+      <c r="H73">
+        <v>0.3394212403543884</v>
+      </c>
+      <c r="I73">
+        <v>0.007924271756026094</v>
+      </c>
+      <c r="J73">
+        <v>-0.115615328091574</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.02772747473308097</v>
+        <v>0.03561020060122552</v>
       </c>
       <c r="C74">
-        <v>0.1187178677080837</v>
+        <v>-0.1156601661172917</v>
       </c>
       <c r="D74">
-        <v>-0.0988717360019252</v>
+        <v>-0.04604743777004027</v>
       </c>
       <c r="E74">
-        <v>-0.05514385153234259</v>
+        <v>0.08290034062635461</v>
       </c>
       <c r="F74">
-        <v>0.01448414749058739</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.0038436891825907</v>
+      </c>
+      <c r="G74">
+        <v>-0.02856748142923908</v>
+      </c>
+      <c r="H74">
+        <v>-0.01398336262150168</v>
+      </c>
+      <c r="I74">
+        <v>0.01335301347234501</v>
+      </c>
+      <c r="J74">
+        <v>0.003665538447197154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.09699169102255337</v>
+        <v>0.06936901976879757</v>
       </c>
       <c r="C75">
-        <v>0.2121881734835747</v>
+        <v>-0.1940918606799684</v>
       </c>
       <c r="D75">
-        <v>-0.2045073921548596</v>
+        <v>-0.08805355407368831</v>
       </c>
       <c r="E75">
-        <v>-0.1626694855279017</v>
+        <v>0.2305877690154418</v>
       </c>
       <c r="F75">
-        <v>0.07407440252110375</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.08113099441878875</v>
+      </c>
+      <c r="G75">
+        <v>-0.1491798536114975</v>
+      </c>
+      <c r="H75">
+        <v>0.02109892812110168</v>
+      </c>
+      <c r="I75">
+        <v>0.07057941469198685</v>
+      </c>
+      <c r="J75">
+        <v>0.05626590510319773</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.04310886327118435</v>
+        <v>0.04028325610605651</v>
       </c>
       <c r="C76">
-        <v>0.1474040221535541</v>
+        <v>-0.1415926019653895</v>
       </c>
       <c r="D76">
-        <v>-0.102579935199006</v>
+        <v>-0.07505170411259722</v>
       </c>
       <c r="E76">
-        <v>-0.0514491006739072</v>
+        <v>0.1081149061006007</v>
       </c>
       <c r="F76">
-        <v>0.005704207417183037</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-7.330385572137696e-05</v>
+      </c>
+      <c r="G76">
+        <v>-0.03062189651347492</v>
+      </c>
+      <c r="H76">
+        <v>-0.01342388071397069</v>
+      </c>
+      <c r="I76">
+        <v>0.0185480151289774</v>
+      </c>
+      <c r="J76">
+        <v>0.03133813446137274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.0288933074098986</v>
+        <v>0.02682514342302993</v>
       </c>
       <c r="C77">
-        <v>0.171905786816266</v>
+        <v>-0.2617371867444767</v>
       </c>
       <c r="D77">
-        <v>0.6413898608365332</v>
+        <v>0.9432563805143915</v>
       </c>
       <c r="E77">
-        <v>-0.6520119881091163</v>
+        <v>0.1520943622979727</v>
       </c>
       <c r="F77">
-        <v>-0.122556029332776</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.01726970801143374</v>
+      </c>
+      <c r="G77">
+        <v>0.008805660069584857</v>
+      </c>
+      <c r="H77">
+        <v>-0.03956591794429991</v>
+      </c>
+      <c r="I77">
+        <v>-0.01792195119273433</v>
+      </c>
+      <c r="J77">
+        <v>0.01268558303084694</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.02316764055502206</v>
+        <v>0.02513732761104648</v>
       </c>
       <c r="C78">
-        <v>0.1581514017750976</v>
+        <v>-0.1267933695914097</v>
       </c>
       <c r="D78">
-        <v>0.05424107333817048</v>
+        <v>-0.06359331339946477</v>
       </c>
       <c r="E78">
-        <v>0.09755173479719495</v>
+        <v>-0.0317878818713908</v>
       </c>
       <c r="F78">
-        <v>0.1213301569299995</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.01981594168607981</v>
+      </c>
+      <c r="G78">
+        <v>-0.07041537332039446</v>
+      </c>
+      <c r="H78">
+        <v>-0.1406450668893728</v>
+      </c>
+      <c r="I78">
+        <v>-0.1612372135689017</v>
+      </c>
+      <c r="J78">
+        <v>-0.4907400324552626</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.05728043881941845</v>
+        <v>0.05792926490557233</v>
       </c>
       <c r="C79">
-        <v>0.2448374162383389</v>
+        <v>-0.1852603023411261</v>
       </c>
       <c r="D79">
-        <v>-0.1768072972479568</v>
+        <v>-0.06921856235993191</v>
       </c>
       <c r="E79">
-        <v>-0.1484061029651032</v>
+        <v>0.1857602142379086</v>
       </c>
       <c r="F79">
-        <v>0.172742264573359</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.006763949847418078</v>
+      </c>
+      <c r="G79">
+        <v>-0.1943774713004656</v>
+      </c>
+      <c r="H79">
+        <v>-0.06154850792131497</v>
+      </c>
+      <c r="I79">
+        <v>0.09719755058763069</v>
+      </c>
+      <c r="J79">
+        <v>-0.02799381561958463</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.01367383880255944</v>
+        <v>0.007865192277856045</v>
       </c>
       <c r="C80">
-        <v>0.06785819449088713</v>
+        <v>-0.06222239822718196</v>
       </c>
       <c r="D80">
-        <v>-0.02577027735242728</v>
+        <v>-0.04101136196481787</v>
       </c>
       <c r="E80">
-        <v>0.01348983043644257</v>
+        <v>-0.03316906469488518</v>
       </c>
       <c r="F80">
-        <v>-0.005864455366494919</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.06943627272033051</v>
+      </c>
+      <c r="G80">
+        <v>0.03642939512474552</v>
+      </c>
+      <c r="H80">
+        <v>0.05210720611757974</v>
+      </c>
+      <c r="I80">
+        <v>0.05752980027006702</v>
+      </c>
+      <c r="J80">
+        <v>0.07234174020038737</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.03156133782039513</v>
+        <v>0.02111488972596332</v>
       </c>
       <c r="C81">
-        <v>0.1296185977898384</v>
+        <v>-0.1182770055415844</v>
       </c>
       <c r="D81">
-        <v>-0.1286984956258566</v>
+        <v>-0.04706678365957521</v>
       </c>
       <c r="E81">
-        <v>-0.1145417940992721</v>
+        <v>0.1063624847174359</v>
       </c>
       <c r="F81">
-        <v>0.04178837962923353</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.01304924206871771</v>
+      </c>
+      <c r="G81">
+        <v>-0.08532725017820848</v>
+      </c>
+      <c r="H81">
+        <v>-0.06814563729663516</v>
+      </c>
+      <c r="I81">
+        <v>0.08961298534013805</v>
+      </c>
+      <c r="J81">
+        <v>0.03449121218725019</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.05410219955662064</v>
+        <v>0.04864010896624059</v>
       </c>
       <c r="C82">
-        <v>0.1559618461116302</v>
+        <v>-0.132568308485581</v>
       </c>
       <c r="D82">
-        <v>-0.1394480465528118</v>
+        <v>-0.07168586570598462</v>
       </c>
       <c r="E82">
-        <v>-0.07884000258010991</v>
+        <v>0.1267992011006376</v>
       </c>
       <c r="F82">
-        <v>0.004569125270211441</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.0003001408578511265</v>
+      </c>
+      <c r="G82">
+        <v>-0.05620297642679703</v>
+      </c>
+      <c r="H82">
+        <v>-0.03203661472520971</v>
+      </c>
+      <c r="I82">
+        <v>0.0560208150187273</v>
+      </c>
+      <c r="J82">
+        <v>0.0153853594667646</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.005456702753633363</v>
+        <v>0.003637337296935026</v>
       </c>
       <c r="C83">
-        <v>0.0505800480629085</v>
+        <v>-0.0121302312397043</v>
       </c>
       <c r="D83">
-        <v>0.1155352413437286</v>
+        <v>0.03747930242759211</v>
       </c>
       <c r="E83">
-        <v>-0.08452420230745557</v>
+        <v>-0.09356274678261148</v>
       </c>
       <c r="F83">
-        <v>0.6130187792273909</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.9215856161604709</v>
+      </c>
+      <c r="G83">
+        <v>-0.2476395599274137</v>
+      </c>
+      <c r="H83">
+        <v>0.04459416320252543</v>
+      </c>
+      <c r="I83">
+        <v>0.1155526117468867</v>
+      </c>
+      <c r="J83">
+        <v>0.005342126242005364</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.002373334142196864</v>
+        <v>-0.001764333062387721</v>
       </c>
       <c r="C84">
-        <v>0.03314567455912724</v>
+        <v>-0.03803257154688935</v>
       </c>
       <c r="D84">
-        <v>0.02462691692634562</v>
+        <v>-0.04580043448553966</v>
       </c>
       <c r="E84">
-        <v>0.09089713222669996</v>
+        <v>-0.07513541025412458</v>
       </c>
       <c r="F84">
-        <v>0.01308486442938198</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>-0.05101633945447802</v>
+      </c>
+      <c r="G84">
+        <v>-0.04019727861270599</v>
+      </c>
+      <c r="H84">
+        <v>-0.06944752761646826</v>
+      </c>
+      <c r="I84">
+        <v>-0.04894862277297721</v>
+      </c>
+      <c r="J84">
+        <v>0.0758009334750316</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.04147125190953003</v>
+        <v>0.03239573207348447</v>
       </c>
       <c r="C85">
-        <v>0.1703279498034721</v>
+        <v>-0.1400255672121317</v>
       </c>
       <c r="D85">
-        <v>-0.1498557330430432</v>
+        <v>-0.08397626944837586</v>
       </c>
       <c r="E85">
-        <v>-0.1029634641084442</v>
+        <v>0.1823561891259883</v>
       </c>
       <c r="F85">
-        <v>0.1264108060161288</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.008452444756312141</v>
+      </c>
+      <c r="G85">
+        <v>-0.1217289042391587</v>
+      </c>
+      <c r="H85">
+        <v>-0.02047454432882756</v>
+      </c>
+      <c r="I85">
+        <v>0.07314605197078849</v>
+      </c>
+      <c r="J85">
+        <v>0.03683970948032785</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.0372021688396784</v>
+        <v>0.01916468850562968</v>
       </c>
       <c r="C86">
-        <v>0.04847567378135659</v>
+        <v>-0.07036976045450975</v>
       </c>
       <c r="D86">
-        <v>0.09353915766922061</v>
+        <v>0.0006289932574381925</v>
       </c>
       <c r="E86">
-        <v>0.01682783747029659</v>
+        <v>-0.06580152393732124</v>
       </c>
       <c r="F86">
-        <v>-0.05493372163416511</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.05004093742965342</v>
+      </c>
+      <c r="G86">
+        <v>-0.06120825531120412</v>
+      </c>
+      <c r="H86">
+        <v>-0.08988546361919425</v>
+      </c>
+      <c r="I86">
+        <v>0.0676073146453785</v>
+      </c>
+      <c r="J86">
+        <v>-0.1781829165756516</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02927937243873153</v>
+        <v>0.01762665433693995</v>
       </c>
       <c r="C87">
-        <v>0.1296659188322368</v>
+        <v>-0.1236040112108073</v>
       </c>
       <c r="D87">
-        <v>0.09290408092171293</v>
+        <v>0.01022237982367448</v>
       </c>
       <c r="E87">
-        <v>0.1085796613898667</v>
+        <v>-0.1012172544370239</v>
       </c>
       <c r="F87">
-        <v>0.002016822696831039</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.0205569022943212</v>
+      </c>
+      <c r="G87">
+        <v>-0.01937318366360777</v>
+      </c>
+      <c r="H87">
+        <v>-0.02101874288133379</v>
+      </c>
+      <c r="I87">
+        <v>-0.1437469789090317</v>
+      </c>
+      <c r="J87">
+        <v>-0.07817748485616864</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.0185072788406917</v>
+        <v>0.03379738411367833</v>
       </c>
       <c r="C88">
-        <v>0.07548508692254323</v>
+        <v>-0.08252830395151457</v>
       </c>
       <c r="D88">
-        <v>-0.06437800164752081</v>
+        <v>-0.03299185000811156</v>
       </c>
       <c r="E88">
-        <v>-0.02331672076804325</v>
+        <v>0.01709737386989608</v>
       </c>
       <c r="F88">
-        <v>-0.03612342840940447</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.008587820517505612</v>
+      </c>
+      <c r="G88">
+        <v>0.02603194182790469</v>
+      </c>
+      <c r="H88">
+        <v>0.008915808108494573</v>
+      </c>
+      <c r="I88">
+        <v>0.03883763573757696</v>
+      </c>
+      <c r="J88">
+        <v>0.08738076912920135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.4434766621737821</v>
+        <v>0.4056894153550419</v>
       </c>
       <c r="C89">
-        <v>-0.09296762776887241</v>
+        <v>0.1128284966205181</v>
       </c>
       <c r="D89">
-        <v>-0.06076078765474069</v>
+        <v>0.01036667431273487</v>
       </c>
       <c r="E89">
-        <v>0.256097320742024</v>
+        <v>-0.05050158296894248</v>
       </c>
       <c r="F89">
-        <v>0.1487728605662576</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.09518625191232834</v>
+      </c>
+      <c r="G89">
+        <v>-0.07246635185149457</v>
+      </c>
+      <c r="H89">
+        <v>-0.07796662374401822</v>
+      </c>
+      <c r="I89">
+        <v>-0.7462344625621344</v>
+      </c>
+      <c r="J89">
+        <v>0.1301187982800929</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.313808978962319</v>
+        <v>0.3200447986894252</v>
       </c>
       <c r="C90">
-        <v>-0.04578405687508694</v>
+        <v>0.06225536854327855</v>
       </c>
       <c r="D90">
-        <v>0.06623254982977395</v>
+        <v>0.0163642132247265</v>
       </c>
       <c r="E90">
-        <v>-0.01027942053041239</v>
+        <v>-0.03824814078306934</v>
       </c>
       <c r="F90">
-        <v>0.003827858794506167</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.01615135225298276</v>
+      </c>
+      <c r="G90">
+        <v>-0.01602430050886327</v>
+      </c>
+      <c r="H90">
+        <v>0.01649943667623718</v>
+      </c>
+      <c r="I90">
+        <v>0.1442802861614284</v>
+      </c>
+      <c r="J90">
+        <v>0.000475797505767079</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.04167297645389352</v>
+        <v>0.05086649502972956</v>
       </c>
       <c r="C91">
-        <v>0.1365480001436259</v>
+        <v>-0.1173707361984124</v>
       </c>
       <c r="D91">
-        <v>-0.08461286859293152</v>
+        <v>-0.03993281365414398</v>
       </c>
       <c r="E91">
-        <v>-0.06929298721420843</v>
+        <v>0.09189306680144248</v>
       </c>
       <c r="F91">
-        <v>0.05633452713219572</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.03049100255916182</v>
+      </c>
+      <c r="G91">
+        <v>-0.06881243225214007</v>
+      </c>
+      <c r="H91">
+        <v>-0.01133494455067184</v>
+      </c>
+      <c r="I91">
+        <v>0.03023476591430079</v>
+      </c>
+      <c r="J91">
+        <v>0.03628092130550579</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.3513017970742413</v>
+        <v>0.3501518377641508</v>
       </c>
       <c r="C92">
-        <v>-0.1011173939431252</v>
+        <v>0.1145775155371728</v>
       </c>
       <c r="D92">
-        <v>0.06863426231702262</v>
+        <v>0.0478264834482892</v>
       </c>
       <c r="E92">
-        <v>-0.00786166481504463</v>
+        <v>-0.07050964359262087</v>
       </c>
       <c r="F92">
-        <v>-0.06234986653222008</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1012883330473501</v>
+      </c>
+      <c r="G92">
+        <v>-0.01063421614711486</v>
+      </c>
+      <c r="H92">
+        <v>-0.05045409907815013</v>
+      </c>
+      <c r="I92">
+        <v>0.1536777339193703</v>
+      </c>
+      <c r="J92">
+        <v>0.01043863580003242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.3311435918198886</v>
+        <v>0.3228706278170838</v>
       </c>
       <c r="C93">
-        <v>-0.08232840911931039</v>
+        <v>0.1066138063759877</v>
       </c>
       <c r="D93">
-        <v>-0.01209807847778265</v>
+        <v>-0.005267061538826326</v>
       </c>
       <c r="E93">
-        <v>-0.03349204845529969</v>
+        <v>0.00430981722788146</v>
       </c>
       <c r="F93">
-        <v>-0.006195031948176884</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01838430752777903</v>
+      </c>
+      <c r="G93">
+        <v>-0.02818077346168473</v>
+      </c>
+      <c r="H93">
+        <v>-0.03683633220212561</v>
+      </c>
+      <c r="I93">
+        <v>0.1211193369310405</v>
+      </c>
+      <c r="J93">
+        <v>-0.03860285070383671</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.09065304453332458</v>
+        <v>0.08404772508138693</v>
       </c>
       <c r="C94">
-        <v>0.2257991146183372</v>
+        <v>-0.1978661741519632</v>
       </c>
       <c r="D94">
-        <v>-0.2468024625488343</v>
+        <v>-0.1137817294656833</v>
       </c>
       <c r="E94">
-        <v>-0.1518121817006545</v>
+        <v>0.3231100137454668</v>
       </c>
       <c r="F94">
-        <v>0.2217656366938464</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.03693718604122682</v>
+      </c>
+      <c r="G94">
+        <v>-0.3758081056655953</v>
+      </c>
+      <c r="H94">
+        <v>0.03886513278576265</v>
+      </c>
+      <c r="I94">
+        <v>-0.2139045061005278</v>
+      </c>
+      <c r="J94">
+        <v>0.1778379510330155</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.02453380495586677</v>
+        <v>0.03141154615669264</v>
       </c>
       <c r="C95">
-        <v>0.06737372277619265</v>
+        <v>-0.1117205878342854</v>
       </c>
       <c r="D95">
-        <v>-0.001610074937565023</v>
+        <v>-0.02067697625045124</v>
       </c>
       <c r="E95">
-        <v>0.001506857848101356</v>
+        <v>-0.01048649210036613</v>
       </c>
       <c r="F95">
-        <v>-0.138099319937957</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.01622121531826914</v>
+      </c>
+      <c r="G95">
+        <v>0.1370715055280819</v>
+      </c>
+      <c r="H95">
+        <v>-0.0195817060138091</v>
+      </c>
+      <c r="I95">
+        <v>-0.02072430421340582</v>
+      </c>
+      <c r="J95">
+        <v>0.181504074871907</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +3769,118 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.004966570321380096</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.01015206828204436</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.02182238057845847</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>-0.0148207147390927</v>
       </c>
       <c r="F97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.01089192004166754</v>
+      </c>
+      <c r="G97">
+        <v>0.03273204386516062</v>
+      </c>
+      <c r="H97">
+        <v>0.0118738941948761</v>
+      </c>
+      <c r="I97">
+        <v>0.007707300069227425</v>
+      </c>
+      <c r="J97">
+        <v>-0.008967544041138593</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.08606987257420269</v>
+        <v>0.1311219695605442</v>
       </c>
       <c r="C98">
-        <v>0.1488320092180883</v>
+        <v>-0.1683517588794869</v>
       </c>
       <c r="D98">
-        <v>-0.03281110655899908</v>
+        <v>-0.06510350820503669</v>
       </c>
       <c r="E98">
-        <v>0.02811459800364351</v>
+        <v>0.06377936059784937</v>
       </c>
       <c r="F98">
-        <v>-0.2373908640837037</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.0650273421204776</v>
+      </c>
+      <c r="G98">
+        <v>0.337036486925869</v>
+      </c>
+      <c r="H98">
+        <v>0.3573859451433685</v>
+      </c>
+      <c r="I98">
+        <v>-0.04419732667978755</v>
+      </c>
+      <c r="J98">
+        <v>-0.1563050148900743</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.001919092779293909</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.008757171047446343</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.01751473009762185</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.01252919125665665</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.007186319252831706</v>
+      </c>
+      <c r="G99">
+        <v>0.004856300007726814</v>
+      </c>
+      <c r="H99">
+        <v>-0.04500511538292382</v>
+      </c>
+      <c r="I99">
+        <v>-0.01485344756029985</v>
+      </c>
+      <c r="J99">
+        <v>-0.009974064577062446</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +3897,86 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.003431980684289963</v>
+        <v>0.007827007836023645</v>
       </c>
       <c r="C101">
-        <v>0.05713694249275249</v>
+        <v>-0.0782234474292233</v>
       </c>
       <c r="D101">
-        <v>0.04194272696230519</v>
+        <v>-0.02130848294821616</v>
       </c>
       <c r="E101">
-        <v>0.09672834088943791</v>
+        <v>-0.1257477198626895</v>
       </c>
       <c r="F101">
-        <v>-0.07110145486563579</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.04971744394239628</v>
+      </c>
+      <c r="G101">
+        <v>0.1560976960077586</v>
+      </c>
+      <c r="H101">
+        <v>-0.2530275731929246</v>
+      </c>
+      <c r="I101">
+        <v>-0.0522425412356694</v>
+      </c>
+      <c r="J101">
+        <v>0.2230712337920779</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.02012968634468839</v>
+        <v>0.008274959194499176</v>
       </c>
       <c r="C102">
-        <v>0.0838999583350544</v>
+        <v>-0.04020072778818082</v>
       </c>
       <c r="D102">
-        <v>-0.05929332514459042</v>
+        <v>-0.01844007871793883</v>
       </c>
       <c r="E102">
-        <v>-0.04077331274333469</v>
+        <v>0.04645385812042724</v>
       </c>
       <c r="F102">
-        <v>0.04435214118644495</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.01242045710319452</v>
+      </c>
+      <c r="G102">
+        <v>-0.04248126127373852</v>
+      </c>
+      <c r="H102">
+        <v>-0.01475201488324587</v>
+      </c>
+      <c r="I102">
+        <v>-0.004472556087748021</v>
+      </c>
+      <c r="J102">
+        <v>0.003727301149979528</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +3993,22 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4023,18 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
